--- a/SeleniumCore/src/test/resources/testdata/AutomationExercise.xlsx
+++ b/SeleniumCore/src/test/resources/testdata/AutomationExercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0260FB6A-3517-4062-B41F-DE8C4DB78FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FEBDEC-1E9F-45C9-8924-87E4F0FB6D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>preFix</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>1auiautomation</t>
+  </si>
+  <si>
     <t>edu</t>
   </si>
   <si>
+    <t>2auiautomation</t>
+  </si>
+  <si>
     <t>eduHard</t>
+  </si>
+  <si>
+    <t>3auiautomation</t>
   </si>
   <si>
     <t>eduSoft</t>
@@ -80,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,6 +115,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -110,7 +135,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,49 +470,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
